--- a/Offline/BusinessManagement/Information/Anodiam-Info/Expense.xlsx
+++ b/Offline/BusinessManagement/Information/Anodiam-Info/Expense.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Information\Anodiam-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F7DC61-2CD9-4C76-ACDA-DB08E0CEDA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90E2CED-E447-4F4F-97D8-0CAD9620780A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Expense-Details" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Electricity Bill Pay by GPay</t>
+  </si>
+  <si>
+    <t>Airtel Fibre Pay</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,18 +465,29 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="2">
+        <v>45301</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>588.82000000000005</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
-        <f>SUM(D3:D5)</f>
-        <v>1460</v>
+      <c r="D8" s="3">
+        <f>ROUND(SUM(D3:D6),2)</f>
+        <v>2048.8200000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Information/Anodiam-Info/Expense.xlsx
+++ b/Offline/BusinessManagement/Information/Anodiam-Info/Expense.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Information\Anodiam-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90E2CED-E447-4F4F-97D8-0CAD9620780A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D45523-DBDD-45C0-A88F-30663064160F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Airtel Fibre Pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jio recharge (90737 00094) </t>
   </si>
 </sst>
 </file>
@@ -408,16 +411,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
@@ -476,18 +479,29 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="2">
+        <v>45301</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>239</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
-        <f>ROUND(SUM(D3:D6),2)</f>
-        <v>2048.8200000000002</v>
+      <c r="D9" s="3">
+        <f>ROUND(SUM(D3:D7),2)</f>
+        <v>2287.8200000000002</v>
       </c>
     </row>
   </sheetData>
